--- a/biology/Botanique/Spruce-pine-fir/Spruce-pine-fir.xlsx
+++ b/biology/Botanique/Spruce-pine-fir/Spruce-pine-fir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'industrie du bois, Spruce-pine-fir (ou SPF, littéralement en français « Épinette-pin-sapin ») est une catégorie de bois d’œuvre et bois tendres canadiens, de caractéristiques similaires, qui ont été regroupés pour la production et le commerce.
 Principalement utilisés dans des sciages dimensionnés, pour la construction de maisons et de panneaux (comme le contreplaqué et les panneaux de particules orientées), les espèces SPF ont une résistance modérée, se travaillent facilement, supportent bien la peinture, et se clouent bien. Ils sont de couleur  blanche ou jaune pâle. Il y a deux sortes de bois SPF :
